--- a/data/trans_bre/DC-Clase-trans_bre.xlsx
+++ b/data/trans_bre/DC-Clase-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.2982032725602765</v>
+        <v>-0.1353142376627939</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.036357484220562</v>
+        <v>6.345557725802154</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.685148796471756</v>
+        <v>-3.038590613823494</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11.58036494271519</v>
+        <v>11.35087806076747</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.02057754738943195</v>
+        <v>-0.01005234282942205</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.599842346652611</v>
+        <v>0.631337443873183</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2859093780922978</v>
+        <v>-0.2515227659618614</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.5623695112726703</v>
+        <v>0.5358533559902247</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.99153202214946</v>
+        <v>11.46263289380624</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.03724128655427</v>
+        <v>16.67548060101625</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.062723911980538</v>
+        <v>6.345734459560297</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21.36302989157697</v>
+        <v>21.43748017261641</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7962576393398667</v>
+        <v>0.8757842415445913</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.813107223137673</v>
+        <v>2.71094722076721</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6911276720141101</v>
+        <v>0.7110413380059373</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.356608497038993</v>
+        <v>1.363233844587556</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>1.883115920583007</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.9070005147202723</v>
+        <v>0.9070005147202725</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>12.1945237097144</v>
+        <v>12.42049135242659</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.00705664377275</v>
+        <v>4.795869243771898</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.605108610080983</v>
+        <v>6.136301495904878</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11.74735104927829</v>
+        <v>11.75447324016924</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8944979092276631</v>
+        <v>0.842185200924383</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3421338554754542</v>
+        <v>0.4068562585028978</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7686597217298161</v>
+        <v>0.7367363654353734</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5467655823356907</v>
+        <v>0.5237379610977813</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>23.66347986281933</v>
+        <v>24.40346365007335</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>14.35702568311346</v>
+        <v>15.41143634753791</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>15.73935350060373</v>
+        <v>16.38597465689825</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>22.52276316205926</v>
+        <v>22.8987903344693</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.672672733616496</v>
+        <v>2.647581877090996</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.912154262717243</v>
+        <v>2.084960552953336</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.853641061314942</v>
+        <v>3.997287544800167</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.394426589788659</v>
+        <v>1.4089613145531</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>15.85767043256004</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20.47964762432766</v>
+        <v>20.47964762432767</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.503750256438932</v>
@@ -849,7 +849,7 @@
         <v>1.801683702862972</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.828759481692548</v>
+        <v>0.8287594816925486</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.641871714632045</v>
+        <v>2.074403698124737</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.607902637915261</v>
+        <v>5.383780396218967</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9.009608460398891</v>
+        <v>9.064189561096978</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13.07409016051766</v>
+        <v>12.77140427693239</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.07063363625084913</v>
+        <v>0.09229564196997057</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4490499469322747</v>
+        <v>0.389587839830789</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7810370830216236</v>
+        <v>0.8476382319760676</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.4985940426842014</v>
+        <v>0.4770625020816069</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>18.38904588463792</v>
+        <v>17.82014424641685</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.76772785880752</v>
+        <v>17.16046946075053</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23.73781316088612</v>
+        <v>24.00345035324393</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>27.4687619926432</v>
+        <v>27.25289369320437</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9799006998172695</v>
+        <v>0.978470262056489</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.769894452741318</v>
+        <v>1.693348477910924</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.069928397785515</v>
+        <v>3.124859089975563</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.23060299252876</v>
+        <v>1.255936887612529</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.329787284062362</v>
+        <v>4.551811938505821</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.061805980356783</v>
+        <v>5.552564775243192</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.399603371255108</v>
+        <v>3.399385688961334</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9.146015888091123</v>
+        <v>9.150909922401583</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1883008670281541</v>
+        <v>0.196937905457551</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3353019564309174</v>
+        <v>0.3923028596281281</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2950013605848256</v>
+        <v>0.2857192512931093</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3476416031588654</v>
+        <v>0.3512545641967333</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.76807389058407</v>
+        <v>12.36345269755443</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.20934694741907</v>
+        <v>12.52141914373861</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.799623195731453</v>
+        <v>9.802238858914739</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>16.95934759989707</v>
+        <v>17.25590319498141</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6366066884644052</v>
+        <v>0.6154616000019614</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.032293040075369</v>
+        <v>1.064381190400023</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.062411837561589</v>
+        <v>1.027376360921323</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7675897668866314</v>
+        <v>0.7882821621257868</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.716860890837642</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.9162118644989755</v>
+        <v>0.9162118644989753</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.665369394562518</v>
+        <v>2.045001395495248</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>13.92270948713472</v>
+        <v>13.46880602629588</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.437646264431751</v>
+        <v>5.447493408726549</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17.02503796487758</v>
+        <v>17.06986613608121</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.06378375772075122</v>
+        <v>0.08911592402693566</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.186494133353493</v>
+        <v>1.104912015043148</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3370391605740066</v>
+        <v>0.3559149399152169</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.617965000922742</v>
+        <v>0.6235179849563877</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.77493991502525</v>
+        <v>13.54302282743276</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.17837035012054</v>
+        <v>22.13877390637648</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.66186095442634</v>
+        <v>14.07677490738961</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26.44730663494542</v>
+        <v>26.800398124486</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.737321628026572</v>
+        <v>0.7981947680269686</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.971596259803907</v>
+        <v>2.863569819266597</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.16729013786087</v>
+        <v>1.239975346868477</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.265445182369516</v>
+        <v>1.252642407114405</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>16.40598399445495</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25.20987650731169</v>
+        <v>25.2098765073117</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>11.3409991980578</v>
@@ -1149,7 +1149,7 @@
         <v>14.90955489412645</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>2.327634564546103</v>
+        <v>2.327634564546105</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>22.31629982428196</v>
+        <v>22.22720241146142</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>18.15792128516638</v>
+        <v>18.37214732207747</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13.63688860054142</v>
+        <v>13.92323291023256</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17.44928925037644</v>
+        <v>16.95905451453091</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>5.092518534937595</v>
+        <v>4.970331400730371</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>2.59822373725675</v>
+        <v>2.921369572945331</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>4.58749249508646</v>
+        <v>4.630495809033314</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.9986155663447216</v>
+        <v>0.9167282205775893</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>27.99251243894866</v>
+        <v>28.33785490483002</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>25.66651703002947</v>
+        <v>25.56072219311307</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19.12656136235481</v>
+        <v>19.38454666603323</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>30.95679829189926</v>
+        <v>30.39637126571832</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>28.90091177405835</v>
+        <v>29.00597171427599</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>19.68965518634638</v>
+        <v>18.41221557857828</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>52.69694633965832</v>
+        <v>56.31127852476947</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>4.917727302277799</v>
+        <v>4.969199935810884</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>8.333253728948648</v>
+        <v>8.44698396232635</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>11.58734046122883</v>
+        <v>11.65971086649291</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7.184816257305274</v>
+        <v>6.974939552439463</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15.04983670003294</v>
+        <v>15.36276610804233</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.4476829397880838</v>
+        <v>0.4563108078416933</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1.044810399361223</v>
+        <v>1.041254924940179</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6996514148138893</v>
+        <v>0.6591330386434899</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.6700911517947103</v>
+        <v>0.6841912350947289</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>12.48094865339196</v>
+        <v>12.43084066656447</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>15.23327822841155</v>
+        <v>15.29528113342038</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.55272199476556</v>
+        <v>10.42564788856546</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19.15197479861406</v>
+        <v>19.40762439312995</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.7542718643262052</v>
+        <v>0.7411182710262428</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.60196448048883</v>
+        <v>1.599470861148201</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.207260443103129</v>
+        <v>1.184706576047836</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.9517314778362679</v>
+        <v>0.9668247104544364</v>
       </c>
     </row>
     <row r="25">
